--- a/Day22-C 函数/C语言内存管理.xlsx
+++ b/Day22-C 函数/C语言内存管理.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-20" windowWidth="20440" windowHeight="14640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-80" yWindow="-20" windowWidth="20440" windowHeight="14640" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+  <si>
+    <t>if(){           }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、不同的函数块中，变量不能直接调用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int num =10;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>printf(a);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(int a)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main{  num = 10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值传递:把值复制一份传递到下一个作用域中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>print{   a     =  10         }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a =10;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a++;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、函数参数传递，都是把值复制一份，传递到函数作用区域中，在作用区域中修改值，对传递前的值没有任何影响。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(int a);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形式参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>代码区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +224,162 @@
   </si>
   <si>
     <t>*p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序启动找到main()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>停止 main()</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保存现场</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳转到show 块中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int a = 0;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>int a=2;//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>覆盖上一个作用域定义的a</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从main()运行到 show()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从 show() 返回 main()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恢复现场</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int a = 10;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>继续运行 main()</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、每个函数，都会分配独立的内存块，作用域</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、所有的内存块都从 main() 块调用,只有在 main() 被调用的函数，才会分配内存块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、函数内部  嵌套的 作用域，也是一个独立的块</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +403,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,8 +440,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -221,11 +476,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -240,6 +616,27 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,7 +968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="200" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A8" zoomScale="200" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -582,25 +979,25 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="6" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -609,7 +1006,7 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -658,7 +1055,7 @@
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="11" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="4"/>
@@ -708,27 +1105,27 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="7" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="7" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +1147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="200" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="200" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -761,7 +1158,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -779,13 +1176,13 @@
     </row>
     <row r="3" spans="1:6" ht="25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -793,7 +1190,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -803,7 +1200,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -813,7 +1210,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -826,7 +1223,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -997,43 +1394,370 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="B33" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="7" t="s">
-        <v>23</v>
-      </c>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A2:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="14"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="14"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="14"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14"/>
+      <c r="B6" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="16"/>
+      <c r="B11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="17"/>
+      <c r="B14" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Day22-C 函数/C语言内存管理.xlsx
+++ b/Day22-C 函数/C语言内存管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-20" windowWidth="20440" windowHeight="14640" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-80" yWindow="-20" windowWidth="27280" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+  <si>
+    <t>栈区：一个一个的数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆区：一堆一堆的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">static </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修饰的变量值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修饰的变量值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static num=45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行前就分配在常量区内存中，永不删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个程序中，所有对 static 修饰变量的改变都会保留下来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码运行时分配内存,必须赋值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个代码运行过程中，变量是只读的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'a','a','d','f',…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串不变性，当一个字符串定义好后，值永远不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"aadfdfd" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符串的变量值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"aadfdfd123"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当字符串改变，实际是新建一个字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b =</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"aadfdfd"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>if(){           }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常量区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>代码区：点击  Xcode 运行按钮后，所有代码全部放入代码区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,14 +252,6 @@
   </si>
   <si>
     <t>堆区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栈区：长条形的一个数据结构，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆区：没有形状、堆成一堆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -380,6 +478,43 @@
       </rPr>
       <t>、函数内部  嵌套的 作用域，也是一个独立的块</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量区(数据区)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int main(){</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int a =5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>内存地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>D234</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a D234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -542,17 +677,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -624,16 +748,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -966,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A8" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -979,34 +1103,42 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="6" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B2" s="9" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="8">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -1018,16 +1150,22 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
@@ -1035,44 +1173,56 @@
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="11" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
@@ -1103,29 +1253,87 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:4">
       <c r="A18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="D25" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="D27" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="7" t="s">
-        <v>21</v>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1158,7 +1366,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1176,13 +1384,13 @@
     </row>
     <row r="3" spans="1:6" ht="25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1190,7 +1398,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1200,7 +1408,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1210,7 +1418,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1223,7 +1431,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1394,42 +1602,42 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="B33" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1448,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView view="pageLayout" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1461,17 +1669,17 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="18" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="24" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -1480,7 +1688,7 @@
       <c r="B3" s="22"/>
       <c r="C3" s="14"/>
       <c r="D3" s="25" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -1490,7 +1698,7 @@
       <c r="B4" s="22"/>
       <c r="C4" s="14"/>
       <c r="D4" s="25" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -1500,7 +1708,7 @@
       <c r="B5" s="22"/>
       <c r="C5" s="14"/>
       <c r="D5" s="32" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1508,11 +1716,11 @@
     <row r="6" spans="1:6">
       <c r="A6" s="14"/>
       <c r="B6" s="28" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="25" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -1527,22 +1735,22 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="18" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="14"/>
       <c r="D8" s="23" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="15" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="23"/>
@@ -1551,22 +1759,22 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="15" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="23"/>
       <c r="E10" s="14" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="16"/>
       <c r="B11" s="20" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="27"/>
@@ -1575,7 +1783,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="16" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="29"/>
@@ -1585,13 +1793,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="30" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -1600,7 +1808,7 @@
     <row r="14" spans="1:6">
       <c r="A14" s="17"/>
       <c r="B14" s="21" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -1619,49 +1827,49 @@
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="24" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="14" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="18" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="14" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="31" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="14" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="18" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="14"/>
@@ -1689,13 +1897,13 @@
       <c r="C22" s="14"/>
       <c r="D22" s="31"/>
       <c r="E22" s="14" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="14" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -1705,7 +1913,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="18" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -1715,7 +1923,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="14" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1725,7 +1933,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="14" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -1735,7 +1943,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="14" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>

--- a/Day22-C 函数/C语言内存管理.xlsx
+++ b/Day22-C 函数/C语言内存管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-20" windowWidth="27280" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="16480" windowHeight="14680" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,87 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
   <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、每个函数，都会分配独立的内存块，作用域</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、所有的内存块都从 main() 块调用,只有在 main() 被调用的函数，才会分配内存块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、函数内部  嵌套的 作用域，也是一个独立的块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量区(数据区)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int main(){</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int a =5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>内存地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>D234</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a D234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main(){}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int a = 10;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(num);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>栈区：一个一个的数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,10 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>print(int a);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实际参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,10 +402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>main()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>程序启动找到main()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,10 +504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int a = 10;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>2</t>
     </r>
@@ -446,75 +515,6 @@
       </rPr>
       <t>继续运行 main()</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、每个函数，都会分配独立的内存块，作用域</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、所有的内存块都从 main() 块调用,只有在 main() 被调用的函数，才会分配内存块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、函数内部  嵌套的 作用域，也是一个独立的块</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常量区(数据区)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int main(){</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int a =5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>内存地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>D234</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a D234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1092,7 +1092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="200" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="200" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1103,42 +1103,42 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="6" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="B3" s="8">
         <v>5</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -1151,12 +1151,12 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -1164,7 +1164,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1174,7 +1174,7 @@
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -1183,7 +1183,7 @@
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="3" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -1192,18 +1192,18 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="11" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -1212,7 +1212,7 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -1221,7 +1221,7 @@
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E12" s="4"/>
     </row>
@@ -1255,85 +1255,85 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="7" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="7" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="D25" s="7" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="D27" s="7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1366,7 +1366,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1384,13 +1384,13 @@
     </row>
     <row r="3" spans="1:6" ht="25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1431,7 +1431,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1602,42 +1602,42 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="B33" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1656,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:F29"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1669,17 +1669,17 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="18" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="24" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -1688,7 +1688,7 @@
       <c r="B3" s="22"/>
       <c r="C3" s="14"/>
       <c r="D3" s="25" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -1698,7 +1698,7 @@
       <c r="B4" s="22"/>
       <c r="C4" s="14"/>
       <c r="D4" s="25" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -1708,7 +1708,7 @@
       <c r="B5" s="22"/>
       <c r="C5" s="14"/>
       <c r="D5" s="32" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1716,11 +1716,11 @@
     <row r="6" spans="1:6">
       <c r="A6" s="14"/>
       <c r="B6" s="28" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="25" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -1735,22 +1735,22 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="18" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="14"/>
       <c r="D8" s="23" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="15" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="23"/>
@@ -1759,22 +1759,22 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="15" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="23"/>
       <c r="E10" s="14" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="16"/>
       <c r="B11" s="20" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="27"/>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="16" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="29"/>
@@ -1793,13 +1793,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="30" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -1808,7 +1808,7 @@
     <row r="14" spans="1:6">
       <c r="A14" s="17"/>
       <c r="B14" s="21" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -1827,49 +1827,49 @@
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="24" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="14" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="18" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="14" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="31" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="14" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="18" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="14"/>
@@ -1897,13 +1897,13 @@
       <c r="C22" s="14"/>
       <c r="D22" s="31"/>
       <c r="E22" s="14" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="14" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="18" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="14" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="14" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="14" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
